--- a/data/trans_camb/KIDM_C_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,18</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>6,77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-6,49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>8,21</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,08</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,04</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-3,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 22,29</t>
+          <t>-33,86; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 14,25</t>
+          <t>-13,58; 29,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,5</t>
+          <t>-33,03; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 13,27</t>
+          <t>0,0; 39,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,76</t>
+          <t>0,0; 43,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 15,59</t>
+          <t>-8,95; 11,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 8,59</t>
+          <t>-2,1; 28,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,81</t>
+          <t>-16,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>411,68%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>222,72%</t>
+          <t>104,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-83,55%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>206,42%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>339,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-47,35%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>112,42; 1411,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,76; 840,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 364,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 184,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,33; 200,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,4; 451,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 250,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,59; 46,08</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 10,71</t>
+          <t>8,17; 22,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,64</t>
+          <t>2,68; 14,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 6,93</t>
+          <t>-7,35; -0,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 20,53</t>
+          <t>-0,14; 13,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 14,24</t>
+          <t>-4,24; 6,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 6,73</t>
+          <t>-5,64; 7,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,49</t>
+          <t>5,78; 15,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 10,37</t>
+          <t>0,36; 8,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,49</t>
+          <t>-5,65; 0,81</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>133,43%</t>
+          <t>411,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>222,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,81%</t>
+          <t>-83,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>319,3%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>201,26%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>226,46%</t>
+          <t>206,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>151,86%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-47,35%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 653,75</t>
+          <t>112,42; 1411,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 620,28</t>
+          <t>25,76; 840,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>53,63; 1478,73</t>
+          <t>-5,4; 364,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1111,35</t>
+          <t>-49,06; 184,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 554,67</t>
+          <t>-72,33; 200,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,78; 605,73</t>
+          <t>71,4; 451,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 487,4</t>
+          <t>-1,15; 250,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,91; 206,88</t>
+          <t>-82,59; 46,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 0,0</t>
+          <t>1,54; 14,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 29,63</t>
+          <t>1,45; 14,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 0,0</t>
+          <t>-7,42; 0,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,28</t>
+          <t>6,71; 24,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,11</t>
+          <t>-1,3; 13,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,07; 4,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 11,14</t>
+          <t>5,68; 17,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 28,47</t>
+          <t>1,34; 11,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 0,0</t>
+          <t>-6,34; 1,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>259,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>104,31%</t>
+          <t>248,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-76,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>324,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>110,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>300,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>339,78%</t>
+          <t>166,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-54,99%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-9,34; 1468,74</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-12,46; 1561,87</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>48,0; 1584,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-30,47; 861,06</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,11; 867,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,73; 554,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 112,95</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,54; 14,59</t>
+          <t>-0,88; 10,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,45; 14,71</t>
+          <t>-1,68; 9,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,42</t>
+          <t>-4,87; 6,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,71; 24,01</t>
+          <t>5,16; 20,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 13,1</t>
+          <t>1,5; 14,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 4,08</t>
+          <t>-5,2; 6,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,68; 17,2</t>
+          <t>3,69; 13,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,12</t>
+          <t>1,21; 10,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 1,14</t>
+          <t>-3,36; 4,49</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>259,98%</t>
+          <t>133,43%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>248,16%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-76,84%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>324,8%</t>
+          <t>319,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>110,5%</t>
+          <t>201,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-39,22%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>300,8%</t>
+          <t>226,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>166,62%</t>
+          <t>151,86%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-54,99%</t>
+          <t>-1,74%</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 1468,74</t>
+          <t>-27,35; 653,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 1561,87</t>
+          <t>-38,16; 620,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>48,0; 1584,75</t>
+          <t>53,63; 1478,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 861,06</t>
+          <t>0,78; 1111,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 554,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>66,11; 867,48</t>
+          <t>52,78; 605,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,73; 554,58</t>
+          <t>4,01; 487,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 112,95</t>
+          <t>-70,91; 206,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_C_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 0,0</t>
+          <t>-33,97; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 29,63</t>
+          <t>-12,87; 29,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 0,0</t>
+          <t>-33,08; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,28</t>
+          <t>0,0; 33,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,11</t>
+          <t>0,0; 47,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 11,14</t>
+          <t>-6,35; 11,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 28,47</t>
+          <t>-0,38; 29,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 0,0</t>
+          <t>-14,45; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 11,39</t>
+          <t>-4,96; 9,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 13,17</t>
+          <t>-2,37; 13,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 7,26</t>
+          <t>-7,68; 7,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 17,44</t>
+          <t>-3,6; 16,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 4,17</t>
+          <t>-12,4; 4,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 0,86</t>
+          <t>-15,17; 0,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 11,1</t>
+          <t>-1,76; 11,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 6,66</t>
+          <t>-5,36; 6,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 2,27</t>
+          <t>-8,34; 2,41</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 351,44</t>
+          <t>-57,33; 321,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 390,32</t>
+          <t>-37,95; 432,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,24; 284,88</t>
+          <t>-90,1; 377,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 436,18</t>
+          <t>-35,63; 411,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,64; 106,96</t>
+          <t>-90,34; 149,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 140,85</t>
+          <t>-100,0; 202,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 237,77</t>
+          <t>-22,89; 244,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,91; 150,45</t>
+          <t>-56,41; 140,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,94; 85,05</t>
+          <t>-88,56; 86,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 22,29</t>
+          <t>8,45; 22,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 14,25</t>
+          <t>2,38; 13,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,5</t>
+          <t>-7,45; -0,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 13,27</t>
+          <t>-0,45; 12,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,76</t>
+          <t>-4,1; 6,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,59</t>
+          <t>-5,82; 8,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,78; 15,59</t>
+          <t>5,99; 15,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 8,59</t>
+          <t>0,34; 8,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,81</t>
+          <t>-6,02; 0,67</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>112,42; 1411,41</t>
+          <t>118,19; 1504,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,76; 840,93</t>
+          <t>22,98; 879,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 364,35</t>
+          <t>-9,44; 304,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 184,96</t>
+          <t>-48,69; 182,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,33; 200,62</t>
+          <t>-70,5; 193,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>71,4; 451,15</t>
+          <t>75,07; 437,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 250,18</t>
+          <t>2,03; 252,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,59; 46,08</t>
+          <t>-87,15; 38,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 14,59</t>
+          <t>1,22; 14,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 14,71</t>
+          <t>0,91; 15,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,42</t>
+          <t>-7,35; 0,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 24,01</t>
+          <t>6,49; 24,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 13,1</t>
+          <t>-1,83; 12,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 4,08</t>
+          <t>-8,01; 4,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 17,2</t>
+          <t>5,76; 16,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,12</t>
+          <t>1,19; 11,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 1,14</t>
+          <t>-5,37; 0,92</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 1468,74</t>
+          <t>-21,77; 1589,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 1561,87</t>
+          <t>-13,08; 1553,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>48,0; 1584,75</t>
+          <t>36,32; 1573,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 861,06</t>
+          <t>-46,57; 725,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>66,11; 867,48</t>
+          <t>80,45; 894,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,73; 554,58</t>
+          <t>7,8; 542,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 112,95</t>
+          <t>-100,0; 116,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 10,71</t>
+          <t>-1,16; 11,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,64</t>
+          <t>-1,74; 9,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 6,93</t>
+          <t>-5,15; 6,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,16; 20,53</t>
+          <t>4,38; 20,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,5; 14,24</t>
+          <t>1,11; 14,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 6,73</t>
+          <t>-5,48; 6,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,49</t>
+          <t>3,81; 13,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 10,37</t>
+          <t>1,79; 10,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,49</t>
+          <t>-3,71; 4,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 653,75</t>
+          <t>-39,88; 911,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 620,28</t>
+          <t>-49,06; 504,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 730,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>53,63; 1478,73</t>
+          <t>44,82; 1603,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1111,35</t>
+          <t>-0,44; 1050,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 554,67</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>52,78; 605,73</t>
+          <t>58,87; 613,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4,01; 487,4</t>
+          <t>19,44; 512,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-70,91; 206,88</t>
+          <t>-79,27; 200,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,2</t>
+          <t>4,11; 11,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,44</t>
+          <t>2,65; 9,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,14</t>
+          <t>-4,41; 0,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,84</t>
+          <t>5,95; 13,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,06</t>
+          <t>0,35; 6,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 1,8</t>
+          <t>-4,63; 1,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,18</t>
+          <t>6,1; 11,32</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,24</t>
+          <t>2,37; 7,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,04</t>
+          <t>-3,72; 0,11</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>77,78; 391,32</t>
+          <t>69,76; 355,3</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>47,93; 331,01</t>
+          <t>48,04; 328,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-83,55; 12,33</t>
+          <t>-82,68; 17,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>74,14; 337,35</t>
+          <t>76,16; 332,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,81; 178,07</t>
+          <t>1,62; 166,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 45,08</t>
+          <t>-67,55; 54,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>102,56; 295,18</t>
+          <t>104,59; 295,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>42,07; 190,47</t>
+          <t>40,62; 191,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-69,07; -1,57</t>
+          <t>-65,29; 7,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_C_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 0,0</t>
+          <t>-35,3; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 29,19</t>
+          <t>-12,96; 28,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 0,0</t>
+          <t>-28,36; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,13</t>
+          <t>0,0; 41,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,3</t>
+          <t>0,0; 41,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 11,06</t>
+          <t>-6,35; 11,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 29,17</t>
+          <t>-0,68; 26,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-17,61; 0,0</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 9,89</t>
+          <t>-3,94; 11,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 13,79</t>
+          <t>-2,97; 13,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 7,62</t>
+          <t>-7,9; 6,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 16,32</t>
+          <t>-4,27; 16,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 4,21</t>
+          <t>-11,63; 4,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 0,5</t>
+          <t>-14,7; 0,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 11,17</t>
+          <t>-1,74; 11,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 6,29</t>
+          <t>-5,07; 6,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 2,41</t>
+          <t>-9,0; 2,11</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 321,88</t>
+          <t>-47,47; 366,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 432,88</t>
+          <t>-45,45; 432,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,1; 377,94</t>
+          <t>-100,0; 270,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 411,22</t>
+          <t>-34,15; 483,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-90,34; 149,85</t>
+          <t>-89,18; 157,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 202,74</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 244,87</t>
+          <t>-19,3; 271,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,41; 140,22</t>
+          <t>-54,94; 140,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,56; 86,01</t>
+          <t>-89,56; 64,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 22,9</t>
+          <t>8,5; 22,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,84</t>
+          <t>2,96; 14,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; -0,44</t>
+          <t>-8,18; -0,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 12,29</t>
+          <t>0,14; 12,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 6,66</t>
+          <t>-4,9; 6,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 8,01</t>
+          <t>-6,12; 8,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 15,2</t>
+          <t>5,55; 15,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,78</t>
+          <t>1,01; 8,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 0,67</t>
+          <t>-5,92; 0,72</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>118,19; 1504,64</t>
+          <t>106,27; 1416,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,98; 879,09</t>
+          <t>26,91; 899,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 304,13</t>
+          <t>-6,01; 362,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 182,62</t>
+          <t>-53,47; 189,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,5; 193,42</t>
+          <t>-78,36; 245,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,07; 437,67</t>
+          <t>68,75; 437,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 252,86</t>
+          <t>10,0; 269,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-87,15; 38,74</t>
+          <t>-83,97; 34,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 14,57</t>
+          <t>1,69; 15,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 15,0</t>
+          <t>1,01; 15,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 0,26</t>
+          <t>-6,69; 0,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 24,94</t>
+          <t>7,15; 25,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 12,89</t>
+          <t>-2,11; 12,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 4,05</t>
+          <t>-7,64; 4,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 16,79</t>
+          <t>6,24; 16,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 11,02</t>
+          <t>1,76; 11,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 0,92</t>
+          <t>-5,54; 1,16</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 1589,09</t>
+          <t>-3,21; 1599,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 1553,47</t>
+          <t>-20,93; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,32; 1573,29</t>
+          <t>54,58; 1642,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 725,34</t>
+          <t>-43,55; 692,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,45; 894,38</t>
+          <t>87,1; 896,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,8; 542,11</t>
+          <t>13,9; 558,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,46</t>
+          <t>-100,0; 112,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 11,52</t>
+          <t>-0,52; 11,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 9,13</t>
+          <t>-1,36; 9,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 6,28</t>
+          <t>-4,39; 8,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,38; 20,98</t>
+          <t>4,4; 20,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 14,75</t>
+          <t>1,11; 14,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 6,85</t>
+          <t>-4,68; 6,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,56</t>
+          <t>4,04; 14,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,4</t>
+          <t>1,71; 10,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,5</t>
+          <t>-3,86; 4,36</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 911,21</t>
+          <t>-24,76; 680,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 504,53</t>
+          <t>-38,47; 598,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 730,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>44,82; 1603,34</t>
+          <t>38,91; 1546,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1050,88</t>
+          <t>-2,2; 1196,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>58,87; 613,81</t>
+          <t>54,21; 689,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,44; 512,51</t>
+          <t>21,86; 561,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,27; 200,8</t>
+          <t>-78,23; 276,7</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,06</t>
+          <t>4,33; 10,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,23</t>
+          <t>2,67; 9,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,03</t>
+          <t>-4,72; -0,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,84</t>
+          <t>6,1; 13,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,95</t>
+          <t>0,66; 7,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,88</t>
+          <t>-4,45; 2,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,32</t>
+          <t>6,04; 11,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,2</t>
+          <t>2,56; 7,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,11</t>
+          <t>-3,76; -0,15</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>69,76; 355,3</t>
+          <t>81,45; 383,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>48,04; 328,76</t>
+          <t>44,03; 305,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-82,68; 17,45</t>
+          <t>-83,29; 8,56</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>76,16; 332,22</t>
+          <t>87,5; 360,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,62; 166,68</t>
+          <t>3,07; 184,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 54,76</t>
+          <t>-65,88; 56,66</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>104,59; 295,04</t>
+          <t>102,97; 299,48</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>40,62; 191,92</t>
+          <t>42,86; 185,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-65,29; 7,03</t>
+          <t>-65,06; 1,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_C_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-2,64</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 0,0</t>
+          <t>-0,52; 16,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 28,92</t>
+          <t>-6,29; 7,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 0,0</t>
+          <t>-10,61; 1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,35</t>
+          <t>-5,56; 7,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,47</t>
+          <t>-2,41; 13,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,07; 7,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 11,09</t>
+          <t>-1,14; 9,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 26,04</t>
+          <t>-2,47; 8,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 0,0</t>
+          <t>-7,63; 2,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>115,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>104,31%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-68,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>76,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>62,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>339,78%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-41,81%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-22,25; 636,49</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-71,18; 289,35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,12; 260,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,61; 408,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 259,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,08; 224,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,62; 208,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,09; 72,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-2,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 11,53</t>
+          <t>-0,14; 13,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 13,99</t>
+          <t>-4,24; 6,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 6,9</t>
+          <t>-5,47; 8,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 16,62</t>
+          <t>8,17; 22,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 4,43</t>
+          <t>2,68; 14,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 0,68</t>
+          <t>-7,35; -0,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 11,23</t>
+          <t>5,78; 15,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,36</t>
+          <t>0,36; 8,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 2,11</t>
+          <t>-5,65; 0,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,52%</t>
+          <t>411,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-38,47%</t>
+          <t>222,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-77,1%</t>
+          <t>-83,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>206,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-48,84%</t>
+          <t>-47,21%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 366,52</t>
+          <t>-5,4; 364,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 432,17</t>
+          <t>-49,06; 184,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 270,27</t>
+          <t>-70,52; 211,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 483,45</t>
+          <t>112,42; 1411,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,18; 157,08</t>
+          <t>25,76; 840,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 271,81</t>
+          <t>71,4; 451,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,94; 140,46</t>
+          <t>-1,15; 250,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-89,56; 64,55</t>
+          <t>-82,12; 49,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,18</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-2,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 22,28</t>
+          <t>6,71; 24,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 14,75</t>
+          <t>-1,3; 13,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -0,36</t>
+          <t>-9,3; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 12,93</t>
+          <t>1,54; 14,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 6,83</t>
+          <t>1,45; 14,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 8,2</t>
+          <t>-7,43; 0,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 15,66</t>
+          <t>5,68; 17,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,98</t>
+          <t>1,34; 11,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 0,72</t>
+          <t>-6,69; 0,62</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>411,68%</t>
+          <t>324,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>222,72%</t>
+          <t>110,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-83,55%</t>
+          <t>-54,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>259,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>248,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>-76,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>206,42%</t>
+          <t>300,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>166,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-47,35%</t>
+          <t>-61,48%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>106,27; 1416,61</t>
+          <t>48,0; 1584,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,91; 899,97</t>
+          <t>-30,47; 861,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 362,13</t>
+          <t>-9,34; 1468,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 189,56</t>
+          <t>-12,46; 1561,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,36; 245,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,75; 437,94</t>
+          <t>66,11; 867,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,0; 269,27</t>
+          <t>8,73; 554,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-83,97; 34,31</t>
+          <t>-100,0; 90,38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,22</t>
+          <t>5,16; 20,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 15,1</t>
+          <t>1,5; 14,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 0,45</t>
+          <t>-5,09; 7,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 25,44</t>
+          <t>-0,88; 10,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 12,43</t>
+          <t>-1,68; 9,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 4,38</t>
+          <t>-5,0; 6,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 16,96</t>
+          <t>3,69; 13,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 11,75</t>
+          <t>1,21; 10,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,16</t>
+          <t>-3,36; 4,69</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>259,98%</t>
+          <t>319,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>248,16%</t>
+          <t>201,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-76,84%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>324,8%</t>
+          <t>133,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>110,5%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,22%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>300,8%</t>
+          <t>226,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>166,62%</t>
+          <t>151,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-54,99%</t>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1599,96</t>
+          <t>53,63; 1478,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,93; —</t>
+          <t>0,78; 1111,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 557,13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-27,35; 653,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-38,16; 620,28</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>54,58; 1642,28</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-43,55; 692,62</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,1; 896,56</t>
+          <t>52,78; 605,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,9; 558,88</t>
+          <t>4,01; 487,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 112,71</t>
+          <t>-70,61; 212,49</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-1,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 11,71</t>
+          <t>5,8; 13,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 9,56</t>
+          <t>0,59; 7,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 8,02</t>
+          <t>-4,57; 1,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 20,21</t>
+          <t>4,44; 11,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 14,55</t>
+          <t>2,58; 9,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 6,56</t>
+          <t>-4,48; 0,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,04; 14,03</t>
+          <t>6,11; 11,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,71; 10,63</t>
+          <t>2,68; 7,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,36</t>
+          <t>-4,09; -0,14</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>133,43%</t>
+          <t>183,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-10,81%</t>
+          <t>-29,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>319,3%</t>
+          <t>184,66%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>201,26%</t>
+          <t>144,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>-53,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>226,46%</t>
+          <t>184,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>151,86%</t>
+          <t>103,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-42,1%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 680,72</t>
+          <t>74,14; 337,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,47; 598,75</t>
+          <t>4,81; 178,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,18; 42,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>38,91; 1546,39</t>
+          <t>77,78; 391,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1196,64</t>
+          <t>47,93; 331,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,65; 15,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>54,21; 689,69</t>
+          <t>102,56; 295,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>21,86; 561,0</t>
+          <t>42,07; 190,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-78,23; 276,7</t>
+          <t>-69,57; -2,86</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>7,58</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,94</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>9,85</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>8,7</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>4,33; 10,96</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 9,3</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; -0,04</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 13,78</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 7,4</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,45; 2,11</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 11,19</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 7,19</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; -0,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>184,66%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>144,66%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-54,19%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>183,6%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>70,03%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-25,08%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>184,61%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>103,33%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-40,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>81,45; 383,79</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>44,03; 305,87</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-83,29; 8,56</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>87,5; 360,07</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 184,1</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-65,88; 56,66</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>102,97; 299,48</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>42,86; 185,05</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-65,06; 1,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
